--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2265" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter for Powerplants" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -113,13 +113,13 @@
     <t>CHP CC gas turbine/ back-pressure turbine gas/oil</t>
   </si>
   <si>
-    <t>energy_carrier</t>
-  </si>
-  <si>
-    <t>energy_carrier_prices</t>
-  </si>
-  <si>
-    <t>em</t>
+    <t>energy carrier</t>
+  </si>
+  <si>
+    <t>prices(EUR/MWh)</t>
+  </si>
+  <si>
+    <t>emission factor</t>
   </si>
   <si>
     <t>ambient heat</t>
@@ -158,25 +158,22 @@
     <t>wood pellets</t>
   </si>
   <si>
-    <t>Nan</t>
-  </si>
-  <si>
-    <t>total_demand</t>
-  </si>
-  <si>
-    <t>interest_rate</t>
-  </si>
-  <si>
-    <t>toatl_RF</t>
-  </si>
-  <si>
-    <t>P_co2</t>
+    <t>CO2 Price</t>
+  </si>
+  <si>
+    <t>Interes Rate [0-1]</t>
+  </si>
+  <si>
+    <t>Total Renewable Factor [0-1]</t>
+  </si>
+  <si>
+    <t>Total Demand[ MWh]</t>
+  </si>
+  <si>
+    <t>Pmax-Pin</t>
   </si>
   <si>
     <t>Pmax</t>
-  </si>
-  <si>
-    <t>Pmax-sum(P)</t>
   </si>
 </sst>
 </file>
@@ -200,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,15 +249,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -593,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +603,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -654,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="D2">
         <v>1.03</v>
@@ -689,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="D3">
         <v>0.85</v>
@@ -713,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -759,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0.85</v>
@@ -794,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0.98</v>
@@ -899,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1004,7 +1003,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0.57999999999999996</v>
@@ -1109,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0.64</v>
@@ -1346,22 +1345,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="2">
-        <f>0.000606221407201*Data!B2</f>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <f>C24-SUM(C2:C21)</f>
+        <v>-1362.671556794</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f>+(0.000606221407201*Data!E2)</f>
         <v>3637.328443206</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="4">
-        <f>C25-SUM(C2:C21)</f>
-        <v>-2073.671556794</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1375,15 +1374,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,9 +1413,6 @@
       </c>
       <c r="B3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
       </c>
       <c r="D3">
         <v>0.8</v>
@@ -1572,33 +1565,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,25 +1599,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6000000</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <f>0.000606221407201*B2</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <f>0.000606221407201*E2</f>
         <v>3637.328443206</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -53,127 +53,127 @@
     <t>renewable factor</t>
   </si>
   <si>
+    <t>heat boiler wood chips</t>
+  </si>
+  <si>
+    <t>heat boiler wood pellets</t>
+  </si>
+  <si>
+    <t>heat boiler straw</t>
+  </si>
+  <si>
+    <t>heat waste treatment waste</t>
+  </si>
+  <si>
+    <t>heat boiler electricity</t>
+  </si>
+  <si>
+    <t>heat comp. heat pump ambient heat</t>
+  </si>
+  <si>
+    <t>heat comp. heat pump waste heat 20°</t>
+  </si>
+  <si>
+    <t>heat comp. heat pump waste heat 40°</t>
+  </si>
+  <si>
+    <t>heat abs. heat pump various</t>
+  </si>
+  <si>
+    <t>CHP stirling engine gas. Biomass</t>
+  </si>
+  <si>
+    <t>CHP steam turbine (medium) wood chips</t>
+  </si>
+  <si>
+    <t>CHP steam turbine (small) wood chips</t>
+  </si>
+  <si>
+    <t>CHP steam turbine (medium) straw</t>
+  </si>
+  <si>
+    <t>CHP steam turbine (small) straw</t>
+  </si>
+  <si>
+    <t>CHP waste treatment waste</t>
+  </si>
+  <si>
+    <t>CHP spark ignition natural gas</t>
+  </si>
+  <si>
+    <t>CHP spark ignition gas. Biomass</t>
+  </si>
+  <si>
+    <t>CHP CC gas turbine/ steam extraction turbine gas/oil</t>
+  </si>
+  <si>
+    <t>CHP CC gas turbine/ back-pressure turbine gas/oil</t>
+  </si>
+  <si>
+    <t>energy carrier</t>
+  </si>
+  <si>
+    <t>prices(EUR/MWh)</t>
+  </si>
+  <si>
+    <t>emission factor</t>
+  </si>
+  <si>
+    <t>ambient heat</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>gas. Biomass</t>
+  </si>
+  <si>
+    <t>gas/oil</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>straw</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>waste heat 20°</t>
+  </si>
+  <si>
+    <t>waste heat 40°</t>
+  </si>
+  <si>
+    <t>wood chips</t>
+  </si>
+  <si>
+    <t>wood pellets</t>
+  </si>
+  <si>
+    <t>CO2 Price</t>
+  </si>
+  <si>
+    <t>Interes Rate [0-1]</t>
+  </si>
+  <si>
+    <t>Total Renewable Factor [0-1]</t>
+  </si>
+  <si>
+    <t>Total Demand[ MWh]</t>
+  </si>
+  <si>
+    <t>Pmax-Pin</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
     <t>heat boiler natural gas</t>
-  </si>
-  <si>
-    <t>heat boiler wood chips</t>
-  </si>
-  <si>
-    <t>heat boiler wood pellets</t>
-  </si>
-  <si>
-    <t>heat boiler straw</t>
-  </si>
-  <si>
-    <t>heat waste treatment waste</t>
-  </si>
-  <si>
-    <t>heat boiler electricity</t>
-  </si>
-  <si>
-    <t>heat comp. heat pump ambient heat</t>
-  </si>
-  <si>
-    <t>heat comp. heat pump waste heat 20°</t>
-  </si>
-  <si>
-    <t>heat comp. heat pump waste heat 40°</t>
-  </si>
-  <si>
-    <t>heat abs. heat pump various</t>
-  </si>
-  <si>
-    <t>CHP stirling engine gas. Biomass</t>
-  </si>
-  <si>
-    <t>CHP steam turbine (medium) wood chips</t>
-  </si>
-  <si>
-    <t>CHP steam turbine (small) wood chips</t>
-  </si>
-  <si>
-    <t>CHP steam turbine (medium) straw</t>
-  </si>
-  <si>
-    <t>CHP steam turbine (small) straw</t>
-  </si>
-  <si>
-    <t>CHP waste treatment waste</t>
-  </si>
-  <si>
-    <t>CHP spark ignition natural gas</t>
-  </si>
-  <si>
-    <t>CHP spark ignition gas. Biomass</t>
-  </si>
-  <si>
-    <t>CHP CC gas turbine/ steam extraction turbine gas/oil</t>
-  </si>
-  <si>
-    <t>CHP CC gas turbine/ back-pressure turbine gas/oil</t>
-  </si>
-  <si>
-    <t>energy carrier</t>
-  </si>
-  <si>
-    <t>prices(EUR/MWh)</t>
-  </si>
-  <si>
-    <t>emission factor</t>
-  </si>
-  <si>
-    <t>ambient heat</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>gas. Biomass</t>
-  </si>
-  <si>
-    <t>gas/oil</t>
-  </si>
-  <si>
-    <t>natural gas</t>
-  </si>
-  <si>
-    <t>straw</t>
-  </si>
-  <si>
-    <t>various</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>waste heat 20°</t>
-  </si>
-  <si>
-    <t>waste heat 40°</t>
-  </si>
-  <si>
-    <t>wood chips</t>
-  </si>
-  <si>
-    <t>wood pellets</t>
-  </si>
-  <si>
-    <t>CO2 Price</t>
-  </si>
-  <si>
-    <t>Interes Rate [0-1]</t>
-  </si>
-  <si>
-    <t>Total Renewable Factor [0-1]</t>
-  </si>
-  <si>
-    <t>Total Demand[ MWh]</t>
-  </si>
-  <si>
-    <t>Pmax-Pin</t>
-  </si>
-  <si>
-    <t>Pmax</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>2500</v>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2500</v>
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1348,19 +1348,19 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <f>C24-SUM(C2:C21)</f>
-        <v>-1362.671556794</v>
+        <v>-4999.999393778593</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f>+(0.000606221407201*Data!E2)</f>
-        <v>3637.328443206</v>
+        <v>6.0622140720100002E-4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1384,13 +1384,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>0.8</v>
@@ -1423,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>62</v>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>47</v>
@@ -1451,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -1479,7 +1479,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1493,7 +1493,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1507,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>36</v>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,16 +1582,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,16 +1608,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2">
         <f>0.000606221407201*E2</f>
-        <v>3637.328443206</v>
+        <v>6.0622140720100002E-4</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter for Powerplants" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1348,7 +1348,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <f>C24-SUM(C2:C21)</f>
-        <v>-4999.999393778593</v>
+        <v>-1362.671556794</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>48</v>
@@ -1357,7 +1357,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f>+(0.000606221407201*Data!E2)</f>
-        <v>6.0622140720100002E-4</v>
+        <v>3637.328443206</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>49</v>
@@ -1567,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E4" s="2">
         <f>0.000606221407201*E2</f>
-        <v>6.0622140720100002E-4</v>
+        <v>3637.328443206</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Parameter for Powerplants" sheetId="1" r:id="rId1"/>
+    <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
     <sheet name="prices and emmision factors" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>heat boiler natural gas</t>
+  </si>
+  <si>
+    <t>Solar Thermal</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>20f + 35.05h</t>
   </si>
 </sst>
 </file>
@@ -217,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,11 +249,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -254,6 +274,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -594,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,9 +1368,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.8</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>550000</v>
+      </c>
+      <c r="G22">
+        <v>10000</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
-        <f>C24-SUM(C2:C21)</f>
+        <f>C24-SUM(C2:C22)</f>
         <v>-1362.671556794</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1371,15 +1429,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,6 +1474,9 @@
       <c r="B3" t="s">
         <v>33</v>
       </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3">
         <v>0.8</v>
       </c>
@@ -1556,6 +1619,20 @@
       </c>
       <c r="D13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="2265" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
     <sheet name="prices and emmision factors" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Heat Storage" sheetId="4" r:id="rId4"/>
+    <sheet name="FiT_Offset" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -183,6 +185,48 @@
   </si>
   <si>
     <t>20f + 35.05h</t>
+  </si>
+  <si>
+    <t>Storage Capacity [MWh]</t>
+  </si>
+  <si>
+    <t>maximum turbining power  [MW]</t>
+  </si>
+  <si>
+    <t>maximum pumping power [MW]</t>
+  </si>
+  <si>
+    <t>pumping efficiency</t>
+  </si>
+  <si>
+    <t>turbining efficiency</t>
+  </si>
+  <si>
+    <t>Invesment costs for additional storage capacity  [€/MW]</t>
+  </si>
+  <si>
+    <t>Invesment costs for additional pumping power  [€/MW]</t>
+  </si>
+  <si>
+    <t>OPEX fix [€/MWa]</t>
+  </si>
+  <si>
+    <t>Life Time [a]</t>
+  </si>
+  <si>
+    <t>heat storage</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Sale Electricity Price</t>
   </si>
 </sst>
 </file>
@@ -206,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -276,6 +326,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1707,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F1" sqref="F1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,6 +1717,10 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,4 +1766,148 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="8">
+        <v>500</v>
+      </c>
+      <c r="E2" s="8">
+        <v>300</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="H2" s="8">
+        <v>60</v>
+      </c>
+      <c r="I2" s="8">
+        <v>250</v>
+      </c>
+      <c r="J2" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K2" s="8">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2265" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="4965" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
@@ -190,24 +190,9 @@
     <t>Storage Capacity [MWh]</t>
   </si>
   <si>
-    <t>maximum turbining power  [MW]</t>
-  </si>
-  <si>
-    <t>maximum pumping power [MW]</t>
-  </si>
-  <si>
-    <t>pumping efficiency</t>
-  </si>
-  <si>
-    <t>turbining efficiency</t>
-  </si>
-  <si>
     <t>Invesment costs for additional storage capacity  [€/MW]</t>
   </si>
   <si>
-    <t>Invesment costs for additional pumping power  [€/MW]</t>
-  </si>
-  <si>
     <t>OPEX fix [€/MWa]</t>
   </si>
   <si>
@@ -227,6 +212,21 @@
   </si>
   <si>
     <t>Sale Electricity Price</t>
+  </si>
+  <si>
+    <t>maximum unloading power  [MW]</t>
+  </si>
+  <si>
+    <t>maximum loading power [MW]</t>
+  </si>
+  <si>
+    <t>loading efficiency</t>
+  </si>
+  <si>
+    <t>unloading efficiency</t>
+  </si>
+  <si>
+    <t>Invesment costs for additional loading power  [€/MW]</t>
   </si>
 </sst>
 </file>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1781,8 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
@@ -1796,28 +1797,28 @@
         <v>54</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,22 +1826,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D2" s="8">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E2" s="8">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F2" s="8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G2" s="8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H2" s="8">
         <v>60</v>
@@ -1864,7 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1878,16 +1879,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nesa\Desktop\Arbeit EEG\Hotmaps\Dispatch\app\modules\common\FEAT\F16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitKraken\Dispatch\app\modules\common\FEAT\F16\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D4BE987-BD73-4DEF-9F6A-E16A90CFCB3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4965" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="4968" windowWidth="16092" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
@@ -160,9 +161,6 @@
     <t>CO2 Price</t>
   </si>
   <si>
-    <t>Interes Rate [0-1]</t>
-  </si>
-  <si>
     <t>Total Renewable Factor [0-1]</t>
   </si>
   <si>
@@ -227,12 +225,15 @@
   </si>
   <si>
     <t>Invesment costs for additional loading power  [€/MW]</t>
+  </si>
+  <si>
+    <t>Interest Rate [0-1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,29 +677,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,12 +731,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>2500</v>
@@ -765,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -800,7 +801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -835,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -870,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -905,7 +906,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -940,7 +941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -975,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1430,12 +1431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1465,22 +1466,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C23" s="4">
         <f>C24-SUM(C2:C22)</f>
         <v>-1362.671556794</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
         <f>+(0.000606221407201*Data!E2)</f>
         <v>3637.328443206</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1490,21 +1491,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1537,13 +1538,13 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1683,12 +1684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1703,41 +1704,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1754,9 +1755,9 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2">
         <f>0.000606221407201*E2</f>
@@ -1769,64 +1770,64 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="C2" s="8">
         <v>500</v>
@@ -1862,36 +1863,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitKraken\Dispatch\app\modules\common\FEAT\F16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nesa\Desktop\Arbeit EEG\Hotmaps\Dispatch\app\modules\common\FEAT\F16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D4BE987-BD73-4DEF-9F6A-E16A90CFCB3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4968" windowWidth="16092" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="4965" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
-    <sheet name="prices and emmision factors" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Heat Storage" sheetId="4" r:id="rId4"/>
-    <sheet name="FiT_Offset" sheetId="5" r:id="rId5"/>
+    <sheet name="Energy Carrier" sheetId="6" r:id="rId2"/>
+    <sheet name="prices and emmision factors" sheetId="2" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Heat Storage" sheetId="4" r:id="rId5"/>
+    <sheet name="FiT_Offset" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>life time</t>
   </si>
   <si>
-    <t>potential restriction (MW_th)</t>
-  </si>
-  <si>
     <t>renewable factor</t>
   </si>
   <si>
@@ -71,170 +68,176 @@
     <t>heat boiler electricity</t>
   </si>
   <si>
+    <t>heat comp. heat pump waste heat 20°</t>
+  </si>
+  <si>
+    <t>heat comp. heat pump waste heat 40°</t>
+  </si>
+  <si>
+    <t>heat abs. heat pump various</t>
+  </si>
+  <si>
+    <t>CHP stirling engine gas. Biomass</t>
+  </si>
+  <si>
+    <t>CHP steam turbine (medium) wood chips</t>
+  </si>
+  <si>
+    <t>CHP steam turbine (small) wood chips</t>
+  </si>
+  <si>
+    <t>CHP steam turbine (medium) straw</t>
+  </si>
+  <si>
+    <t>CHP steam turbine (small) straw</t>
+  </si>
+  <si>
+    <t>CHP waste treatment waste</t>
+  </si>
+  <si>
+    <t>CHP spark ignition natural gas</t>
+  </si>
+  <si>
+    <t>CHP spark ignition gas. Biomass</t>
+  </si>
+  <si>
+    <t>CHP CC gas turbine/ steam extraction turbine gas/oil</t>
+  </si>
+  <si>
+    <t>CHP CC gas turbine/ back-pressure turbine gas/oil</t>
+  </si>
+  <si>
+    <t>energy carrier</t>
+  </si>
+  <si>
+    <t>prices(EUR/MWh)</t>
+  </si>
+  <si>
+    <t>emission factor</t>
+  </si>
+  <si>
+    <t>ambient heat</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>gas. Biomass</t>
+  </si>
+  <si>
+    <t>gas/oil</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>straw</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>waste heat 20°</t>
+  </si>
+  <si>
+    <t>waste heat 40°</t>
+  </si>
+  <si>
+    <t>wood chips</t>
+  </si>
+  <si>
+    <t>wood pellets</t>
+  </si>
+  <si>
+    <t>CO2 Price</t>
+  </si>
+  <si>
+    <t>Total Renewable Factor [0-1]</t>
+  </si>
+  <si>
+    <t>Total Demand[ MWh]</t>
+  </si>
+  <si>
+    <t>Pmax-Pin</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>heat boiler natural gas</t>
+  </si>
+  <si>
+    <t>Solar Thermal</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>20f + 35.05h</t>
+  </si>
+  <si>
+    <t>Storage Capacity [MWh]</t>
+  </si>
+  <si>
+    <t>Invesment costs for additional storage capacity  [€/MW]</t>
+  </si>
+  <si>
+    <t>OPEX fix [€/MWa]</t>
+  </si>
+  <si>
+    <t>Life Time [a]</t>
+  </si>
+  <si>
+    <t>heat storage</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Sale Electricity Price</t>
+  </si>
+  <si>
+    <t>maximum unloading power  [MW]</t>
+  </si>
+  <si>
+    <t>maximum loading power [MW]</t>
+  </si>
+  <si>
+    <t>loading efficiency</t>
+  </si>
+  <si>
+    <t>unloading efficiency</t>
+  </si>
+  <si>
+    <t>Invesment costs for additional loading power  [€/MW]</t>
+  </si>
+  <si>
+    <t>Interest Rate [0-1]</t>
+  </si>
+  <si>
+    <t>must run [0-1]</t>
+  </si>
+  <si>
     <t>heat comp. heat pump ambient heat</t>
   </si>
   <si>
-    <t>heat comp. heat pump waste heat 20°</t>
-  </si>
-  <si>
-    <t>heat comp. heat pump waste heat 40°</t>
-  </si>
-  <si>
-    <t>heat abs. heat pump various</t>
-  </si>
-  <si>
-    <t>CHP stirling engine gas. Biomass</t>
-  </si>
-  <si>
-    <t>CHP steam turbine (medium) wood chips</t>
-  </si>
-  <si>
-    <t>CHP steam turbine (small) wood chips</t>
-  </si>
-  <si>
-    <t>CHP steam turbine (medium) straw</t>
-  </si>
-  <si>
-    <t>CHP steam turbine (small) straw</t>
-  </si>
-  <si>
-    <t>CHP waste treatment waste</t>
-  </si>
-  <si>
-    <t>CHP spark ignition natural gas</t>
-  </si>
-  <si>
-    <t>CHP spark ignition gas. Biomass</t>
-  </si>
-  <si>
-    <t>CHP CC gas turbine/ steam extraction turbine gas/oil</t>
-  </si>
-  <si>
-    <t>CHP CC gas turbine/ back-pressure turbine gas/oil</t>
-  </si>
-  <si>
-    <t>energy carrier</t>
-  </si>
-  <si>
-    <t>prices(EUR/MWh)</t>
-  </si>
-  <si>
-    <t>emission factor</t>
-  </si>
-  <si>
-    <t>ambient heat</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>gas. Biomass</t>
-  </si>
-  <si>
-    <t>gas/oil</t>
-  </si>
-  <si>
-    <t>natural gas</t>
-  </si>
-  <si>
-    <t>straw</t>
-  </si>
-  <si>
-    <t>various</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>waste heat 20°</t>
-  </si>
-  <si>
-    <t>waste heat 40°</t>
-  </si>
-  <si>
-    <t>wood chips</t>
-  </si>
-  <si>
-    <t>wood pellets</t>
-  </si>
-  <si>
-    <t>CO2 Price</t>
-  </si>
-  <si>
-    <t>Total Renewable Factor [0-1]</t>
-  </si>
-  <si>
-    <t>Total Demand[ MWh]</t>
-  </si>
-  <si>
-    <t>Pmax-Pin</t>
-  </si>
-  <si>
-    <t>Pmax</t>
-  </si>
-  <si>
-    <t>heat boiler natural gas</t>
-  </si>
-  <si>
-    <t>Solar Thermal</t>
-  </si>
-  <si>
-    <t>radiation</t>
-  </si>
-  <si>
-    <t>20f + 35.05h</t>
-  </si>
-  <si>
-    <t>Storage Capacity [MWh]</t>
-  </si>
-  <si>
-    <t>Invesment costs for additional storage capacity  [€/MW]</t>
-  </si>
-  <si>
-    <t>OPEX fix [€/MWa]</t>
-  </si>
-  <si>
-    <t>Life Time [a]</t>
-  </si>
-  <si>
-    <t>heat storage</t>
-  </si>
-  <si>
-    <t>Radiation</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Sale Electricity Price</t>
-  </si>
-  <si>
-    <t>maximum unloading power  [MW]</t>
-  </si>
-  <si>
-    <t>maximum loading power [MW]</t>
-  </si>
-  <si>
-    <t>loading efficiency</t>
-  </si>
-  <si>
-    <t>unloading efficiency</t>
-  </si>
-  <si>
-    <t>Invesment costs for additional loading power  [€/MW]</t>
-  </si>
-  <si>
-    <t>Interest Rate [0-1]</t>
+    <t>carrier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +253,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,8 +286,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -311,11 +326,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -340,8 +378,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,29 +726,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,19 +772,19 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K1" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>2500</v>
@@ -762,16 +810,16 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2500</v>
@@ -795,18 +843,18 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -830,18 +878,18 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -865,18 +913,18 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -900,18 +948,18 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -935,24 +983,24 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>48.67</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -976,12 +1024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1005,18 +1053,18 @@
         <v>25</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1040,18 +1088,18 @@
         <v>25</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1075,18 +1123,18 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1110,18 +1158,18 @@
         <v>15</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1145,18 +1193,18 @@
         <v>30</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1180,18 +1228,18 @@
         <v>20</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1215,18 +1263,18 @@
         <v>25</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1250,18 +1298,18 @@
         <v>20</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1285,18 +1333,18 @@
         <v>20</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1322,16 +1370,16 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1355,18 +1403,18 @@
         <v>25</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1392,16 +1440,16 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1427,16 +1475,16 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1460,28 +1508,28 @@
         <v>20</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <f>C24-SUM(C2:C22)</f>
-        <v>-1362.671556794</v>
+        <v>-1898.671556794</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f>+(0.000606221407201*Data!E2)</f>
         <v>3637.328443206</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1491,65 +1539,322 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>62</v>
@@ -1558,12 +1863,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>47</v>
@@ -1572,12 +1877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -1586,12 +1891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -1600,12 +1905,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1614,12 +1919,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1628,12 +1933,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1642,12 +1947,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1656,12 +1961,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -1670,12 +1975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>36</v>
@@ -1684,84 +1989,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2">
-        <f>0.000606221407201*E2</f>
-        <v>3637.328443206</v>
       </c>
     </row>
   </sheetData>
@@ -1770,64 +2009,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2">
+        <f>0.000606221407201*E2</f>
+        <v>3637.328443206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="C2" s="8">
         <v>500</v>
@@ -1862,37 +2167,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4965" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="4965" windowWidth="16095" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2198,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Energy Carrier" sheetId="5" r:id="rId5"/>
     <sheet name="Default - External Data" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -152,9 +152,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>CHP</t>
-  </si>
-  <si>
     <t>boiler</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Wien-2016 , 0h</t>
+  </si>
+  <si>
+    <t>CHP-BP</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0.64</v>
@@ -728,9 +728,6 @@
       </c>
       <c r="K2">
         <v>0.5</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -738,13 +735,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="E3">
         <v>0.6</v>
@@ -766,9 +763,6 @@
       </c>
       <c r="K3">
         <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -776,13 +770,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -803,9 +797,6 @@
         <v>25</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
         <v>0</v>
       </c>
     </row>
@@ -814,13 +805,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="E5">
         <v>0.4</v>
@@ -841,9 +832,6 @@
         <v>25</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
         <v>0</v>
       </c>
     </row>
@@ -852,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -879,9 +867,6 @@
         <v>25</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
         <v>0</v>
       </c>
     </row>
@@ -890,13 +875,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0.61</v>
@@ -917,9 +902,6 @@
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
         <v>0</v>
       </c>
     </row>
@@ -928,13 +910,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>334</v>
+        <v>175</v>
       </c>
       <c r="E8">
         <v>0.95</v>
@@ -955,9 +937,6 @@
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
         <v>0</v>
       </c>
     </row>
@@ -966,13 +945,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0.95</v>
@@ -993,9 +972,6 @@
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
         <v>0</v>
       </c>
     </row>
@@ -1213,9 +1189,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1257,7 +1239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1301,7 +1285,7 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>60</v>
@@ -1360,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -1371,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -1382,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1393,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1404,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1415,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1426,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1437,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1466,19 +1450,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -13,18 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
-    <sheet name="prices and emmision factors" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Heat Storage" sheetId="4" r:id="rId4"/>
-    <sheet name="Energy Carrier" sheetId="5" r:id="rId5"/>
-    <sheet name="Default - External Data" sheetId="6" r:id="rId6"/>
+    <sheet name="emmision factors" sheetId="2" r:id="rId2"/>
+    <sheet name="energy carrier prices" sheetId="7" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Heat Storage" sheetId="4" r:id="rId5"/>
+    <sheet name="Energy Carrier" sheetId="5" r:id="rId6"/>
+    <sheet name="Default - External Data" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -194,19 +195,49 @@
     <t>Electricity Price</t>
   </si>
   <si>
-    <t>Wien-2016</t>
-  </si>
-  <si>
-    <t>Wien-2016 , 10h</t>
-  </si>
-  <si>
-    <t>Wien-2016 , 20f + 35.05h</t>
-  </si>
-  <si>
-    <t>Wien-2016 , 0h</t>
-  </si>
-  <si>
     <t>CHP-BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wien#2016 </t>
+  </si>
+  <si>
+    <t>Wien#2016</t>
+  </si>
+  <si>
+    <t>Wien#2016 , 10f</t>
+  </si>
+  <si>
+    <t>Wien#2016 , 20f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LZN # 1 </t>
+  </si>
+  <si>
+    <t>LZN # 2</t>
+  </si>
+  <si>
+    <t>10h + 2 f</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>10f</t>
+  </si>
+  <si>
+    <t>LZB #2, 20f</t>
+  </si>
+  <si>
+    <t>LZB # 1 , -10h</t>
+  </si>
+  <si>
+    <t>20h + -4 f</t>
+  </si>
+  <si>
+    <t>-40h</t>
+  </si>
+  <si>
+    <t>-20f</t>
   </si>
 </sst>
 </file>
@@ -282,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -293,6 +324,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -634,7 +666,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +735,7 @@
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -729,6 +761,10 @@
       <c r="K2">
         <v>0.5</v>
       </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -738,7 +774,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>259</v>
@@ -764,6 +800,10 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="M3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -773,7 +813,7 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -799,6 +839,10 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -808,7 +852,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>169</v>
@@ -833,6 +877,12 @@
       </c>
       <c r="K5">
         <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -843,7 +893,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>23</v>
@@ -868,6 +918,9 @@
       </c>
       <c r="K6">
         <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -878,7 +931,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>43</v>
@@ -903,6 +956,9 @@
       </c>
       <c r="K7">
         <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -939,6 +995,9 @@
       <c r="K8">
         <v>0</v>
       </c>
+      <c r="N8" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -974,6 +1033,7 @@
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="N9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,26 +1042,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1012,21 +1079,30 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
       <c r="D3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1034,13 +1110,16 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1048,13 +1127,16 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1062,13 +1144,16 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1076,13 +1161,16 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1090,13 +1178,16 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1104,13 +1195,16 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0.12</v>
       </c>
       <c r="D9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1121,10 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1135,10 +1232,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1149,10 +1249,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1160,13 +1263,16 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1177,7 +1283,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1187,10 +1296,260 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>110</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>130</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,12 +1589,46 @@
         <v>1200000</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1317,7 +1710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1432,12 +1825,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,19 +1863,59 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -238,13 +238,28 @@
   </si>
   <si>
     <t>-20f</t>
+  </si>
+  <si>
+    <t>heat pump</t>
+  </si>
+  <si>
+    <t>27.19f</t>
+  </si>
+  <si>
+    <t>Luftwärmepumpe</t>
+  </si>
+  <si>
+    <t>Erdwärmepumpe</t>
+  </si>
+  <si>
+    <t>Wasser-Wärmepumpe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +273,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404245"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -313,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -325,6 +348,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -663,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,6 +1060,129 @@
         <v>0</v>
       </c>
       <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2.8</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>20000</v>
+      </c>
+      <c r="H10">
+        <v>8000</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>26000</v>
+      </c>
+      <c r="H11">
+        <v>5000</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>4.8</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>21000</v>
+      </c>
+      <c r="H12">
+        <v>5000</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1345,12 +1494,6 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1712,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,6 +1961,39 @@
       </c>
       <c r="C9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>prices(EUR/MWh)</t>
   </si>
   <si>
-    <t>emission factor</t>
-  </si>
-  <si>
     <t>ambient heat</t>
   </si>
   <si>
@@ -105,15 +102,9 @@
     <t>radiation</t>
   </si>
   <si>
-    <t>CO2 Price</t>
-  </si>
-  <si>
     <t>Interest Rate [0-1]</t>
   </si>
   <si>
-    <t>Total Renewable Factor [0-1]</t>
-  </si>
-  <si>
     <t>Total Demand[ MWh]</t>
   </si>
   <si>
@@ -132,15 +123,6 @@
     <t>unloading efficiency</t>
   </si>
   <si>
-    <t>Invesment costs for additional storage capacity  [€/MW]</t>
-  </si>
-  <si>
-    <t>Invesment costs for additional loading power  [€/MW]</t>
-  </si>
-  <si>
-    <t>OPEX fix [€/MWa]</t>
-  </si>
-  <si>
     <t>Life Time [a]</t>
   </si>
   <si>
@@ -253,6 +235,21 @@
   </si>
   <si>
     <t>Wasser-Wärmepumpe</t>
+  </si>
+  <si>
+    <t>emission factor [tCO2/MWh]</t>
+  </si>
+  <si>
+    <t>Minimum Renewable Factor [0-1]</t>
+  </si>
+  <si>
+    <t>CO2 Price [EUR/tC02]</t>
+  </si>
+  <si>
+    <t>Invesment costs for additional storage capacity  [€/MWh]</t>
+  </si>
+  <si>
+    <t>OPEX fix [€/MWha]</t>
   </si>
 </sst>
 </file>
@@ -336,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -350,6 +347,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -747,10 +750,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -758,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -788,7 +791,7 @@
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -797,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>259</v>
@@ -827,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -836,10 +839,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -866,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -875,10 +878,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>169</v>
@@ -905,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -916,10 +919,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>23</v>
@@ -946,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -954,10 +957,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>43</v>
@@ -984,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -992,10 +995,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>175</v>
@@ -1022,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1030,10 +1033,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>95</v>
@@ -1066,10 +1069,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1099,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1107,10 +1110,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1140,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1148,10 +1151,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1181,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1197,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1239,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0.3</v>
@@ -1256,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1273,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0.3</v>
@@ -1290,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0.2</v>
@@ -1307,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1324,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1341,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>0.12</v>
@@ -1358,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1375,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1392,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1409,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1426,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1448,7 +1451,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1492,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1500,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>62</v>
@@ -1517,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>47</v>
@@ -1534,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -1551,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -1568,7 +1571,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1585,7 +1588,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1602,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1619,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1636,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1653,7 +1656,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>36</v>
@@ -1670,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1692,7 +1695,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,16 +1706,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,52 +1776,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1835,16 +1846,13 @@
       <c r="G2">
         <v>0.98</v>
       </c>
-      <c r="H2">
-        <v>3000</v>
-      </c>
-      <c r="I2">
-        <v>75000</v>
+      <c r="H2" s="7">
+        <v>60</v>
+      </c>
+      <c r="I2" s="7">
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>10000</v>
-      </c>
-      <c r="K2">
         <v>25</v>
       </c>
     </row>
@@ -1872,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1891,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,10 +1910,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,10 +1921,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,10 +1932,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,10 +1943,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,10 +1954,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,10 +1965,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1968,10 +1976,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,10 +1987,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,10 +1998,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2019,19 +2027,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,19 +2067,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2079,19 +2087,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/input.xlsx
+++ b/app/modules/common/FEAT/F16/input.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -249,7 +249,10 @@
     <t>Invesment costs for additional storage capacity  [€/MWh]</t>
   </si>
   <si>
-    <t>OPEX fix [€/MWha]</t>
+    <t>Hourly Stoarge Losses [%]</t>
+  </si>
+  <si>
+    <t>OPEX fix [€/MWh]</t>
   </si>
 </sst>
 </file>
@@ -351,8 +354,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1776,55 +1779,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1834,25 +1842,25 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>60</v>
-      </c>
       <c r="E2">
         <v>60</v>
       </c>
       <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
         <v>0.95</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.98</v>
       </c>
-      <c r="H2" s="7">
-        <v>60</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="I2">
+        <v>3000</v>
+      </c>
+      <c r="J2">
         <v>10000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>25</v>
       </c>
     </row>
